--- a/output/aggregate_tables/status_by_number_tier.xlsx
+++ b/output/aggregate_tables/status_by_number_tier.xlsx
@@ -515,10 +515,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1368</v>
+        <v>1373</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>520</v>
@@ -527,25 +527,25 @@
         <v>489</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>489</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>26.24269005847954</v>
+        <v>26.51128914785142</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>38.01169590643275</v>
+        <v>37.87327021121632</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>35.74561403508772</v>
+        <v>35.61544064093226</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>64.25438596491229</v>
+        <v>64.38455935906774</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>35.74561403508772</v>
+        <v>35.61544064093226</v>
       </c>
     </row>
     <row r="3">
@@ -553,10 +553,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>327</v>
@@ -565,25 +565,25 @@
         <v>254</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>254</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>20.84468664850136</v>
+        <v>19.75138121546961</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>44.55040871934604</v>
+        <v>45.16574585635359</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>34.60490463215259</v>
+        <v>35.0828729281768</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>65.39509536784742</v>
+        <v>64.9171270718232</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>34.60490463215259</v>
+        <v>35.0828729281768</v>
       </c>
     </row>
     <row r="4">
@@ -591,37 +591,37 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>172</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>172</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>19.88071570576541</v>
+        <v>19.43887775551102</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>45.92445328031809</v>
+        <v>46.09218436873748</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>34.1948310139165</v>
+        <v>34.46893787575151</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>65.8051689860835</v>
+        <v>65.53106212424849</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>34.1948310139165</v>
+        <v>34.46893787575151</v>
       </c>
     </row>
     <row r="5">
@@ -631,37 +631,37 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>2605</v>
+        <v>2596</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>915</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1690</v>
+        <v>1681</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>915</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>23.49328214971209</v>
+        <v>23.26656394453005</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>41.38195777351248</v>
+        <v>41.48690292758089</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>35.12476007677543</v>
+        <v>35.24653312788907</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>64.87523992322457</v>
+        <v>64.75346687211095</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>35.12476007677543</v>
+        <v>35.24653312788907</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/status_by_number_tier.xlsx
+++ b/output/aggregate_tables/status_by_number_tier.xlsx
@@ -515,37 +515,37 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1373</v>
+        <v>1435</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>884</v>
+        <v>935</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>26.51128914785142</v>
+        <v>26.13240418118467</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>37.87327021121632</v>
+        <v>39.02439024390244</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>35.61544064093226</v>
+        <v>34.84320557491289</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>64.38455935906774</v>
+        <v>65.1567944250871</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>35.61544064093226</v>
+        <v>34.84320557491289</v>
       </c>
     </row>
     <row r="3">
@@ -553,37 +553,37 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>724</v>
+        <v>675</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>327</v>
+        <v>289</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>470</v>
+        <v>429</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>19.75138121546961</v>
+        <v>20.74074074074074</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>45.16574585635359</v>
+        <v>42.81481481481482</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>35.0828729281768</v>
+        <v>36.44444444444444</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>64.9171270718232</v>
+        <v>63.55555555555556</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>35.0828729281768</v>
+        <v>36.44444444444444</v>
       </c>
     </row>
     <row r="4">
@@ -591,37 +591,37 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>19.43887775551102</v>
+        <v>18.31275720164609</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>46.09218436873748</v>
+        <v>46.91358024691358</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>34.46893787575151</v>
+        <v>34.77366255144033</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>65.53106212424849</v>
+        <v>65.22633744855966</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>34.46893787575151</v>
+        <v>34.77366255144033</v>
       </c>
     </row>
     <row r="5">

--- a/output/aggregate_tables/status_by_number_tier.xlsx
+++ b/output/aggregate_tables/status_by_number_tier.xlsx
@@ -515,37 +515,37 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>375</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>500</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>500</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>26.13240418118467</v>
+        <v>26.11420612813371</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>39.02439024390244</v>
+        <v>39.06685236768802</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>34.84320557491289</v>
+        <v>34.81894150417828</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>65.1567944250871</v>
+        <v>65.18105849582173</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>34.84320557491289</v>
+        <v>34.81894150417828</v>
       </c>
     </row>
     <row r="3">
@@ -631,37 +631,37 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>2596</v>
+        <v>2597</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>604</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>915</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>915</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>23.26656394453005</v>
+        <v>23.25760492876396</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>41.48690292758089</v>
+        <v>41.50943396226415</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>35.24653312788907</v>
+        <v>35.23296110897189</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>64.75346687211095</v>
+        <v>64.76703889102811</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>35.24653312788907</v>
+        <v>35.23296110897189</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/status_by_number_tier.xlsx
+++ b/output/aggregate_tables/status_by_number_tier.xlsx
@@ -515,10 +515,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1436</v>
+        <v>1426</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>561</v>
@@ -527,25 +527,25 @@
         <v>500</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>936</v>
+        <v>926</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>500</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>26.11420612813371</v>
+        <v>25.5960729312763</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>39.06685236768802</v>
+        <v>39.34081346423562</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>34.81894150417828</v>
+        <v>35.06311360448808</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>65.18105849582173</v>
+        <v>64.93688639551192</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>34.81894150417828</v>
+        <v>35.06311360448808</v>
       </c>
     </row>
     <row r="3">
@@ -631,10 +631,10 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>2597</v>
+        <v>2587</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>1078</v>
@@ -643,25 +643,25 @@
         <v>915</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1682</v>
+        <v>1672</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>915</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>23.25760492876396</v>
+        <v>22.9609586393506</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>41.50943396226415</v>
+        <v>41.66988790104368</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>35.23296110897189</v>
+        <v>35.36915345960573</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>64.76703889102811</v>
+        <v>64.63084654039429</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>35.23296110897189</v>
+        <v>35.36915345960573</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/status_by_number_tier.xlsx
+++ b/output/aggregate_tables/status_by_number_tier.xlsx
@@ -515,37 +515,37 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1426</v>
+        <v>1523</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>561</v>
+        <v>609</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>926</v>
+        <v>998</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>25.5960729312763</v>
+        <v>25.54169402495076</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>39.34081346423562</v>
+        <v>39.98686802363756</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>35.06311360448808</v>
+        <v>34.47143795141169</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>64.93688639551192</v>
+        <v>65.52856204858831</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>35.06311360448808</v>
+        <v>34.47143795141169</v>
       </c>
     </row>
     <row r="3">
@@ -553,37 +553,37 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>675</v>
+        <v>566</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>289</v>
+        <v>234</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>429</v>
+        <v>346</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>20.74074074074074</v>
+        <v>19.78798586572438</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>42.81481481481482</v>
+        <v>41.34275618374559</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>36.44444444444444</v>
+        <v>38.86925795053003</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>63.55555555555556</v>
+        <v>61.13074204946997</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>36.44444444444444</v>
+        <v>38.86925795053003</v>
       </c>
     </row>
     <row r="4">
@@ -591,37 +591,37 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>18.31275720164609</v>
+        <v>18.21946169772256</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>46.91358024691358</v>
+        <v>46.99792960662526</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>34.77366255144033</v>
+        <v>34.78260869565217</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>65.22633744855966</v>
+        <v>65.21739130434783</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>34.77366255144033</v>
+        <v>34.78260869565217</v>
       </c>
     </row>
     <row r="5">
@@ -631,37 +631,37 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>2587</v>
+        <v>2572</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1078</v>
+        <v>1070</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1672</v>
+        <v>1659</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>22.9609586393506</v>
+        <v>22.900466562986</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>41.66988790104368</v>
+        <v>41.60186625194402</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>35.36915345960573</v>
+        <v>35.49766718506999</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>64.63084654039429</v>
+        <v>64.50233281493001</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>35.36915345960573</v>
+        <v>35.49766718506999</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/status_by_number_tier.xlsx
+++ b/output/aggregate_tables/status_by_number_tier.xlsx
@@ -515,10 +515,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>609</v>
@@ -527,25 +527,25 @@
         <v>525</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>525</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>25.54169402495076</v>
+        <v>25.49277266754271</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>39.98686802363756</v>
+        <v>40.01314060446781</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>34.47143795141169</v>
+        <v>34.49408672798949</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>65.52856204858831</v>
+        <v>65.5059132720105</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>34.47143795141169</v>
+        <v>34.49408672798949</v>
       </c>
     </row>
     <row r="3">
@@ -553,7 +553,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>112</v>
@@ -562,28 +562,28 @@
         <v>234</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>346</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>19.78798586572438</v>
+        <v>19.82300884955752</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>41.34275618374559</v>
+        <v>41.41592920353983</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>38.86925795053003</v>
+        <v>38.76106194690265</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>61.13074204946997</v>
+        <v>61.23893805309735</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>38.86925795053003</v>
+        <v>38.76106194690265</v>
       </c>
     </row>
     <row r="4">
@@ -591,7 +591,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>88</v>
@@ -600,28 +600,28 @@
         <v>227</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>315</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>18.21946169772256</v>
+        <v>18.25726141078838</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>46.99792960662526</v>
+        <v>47.0954356846473</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>34.78260869565217</v>
+        <v>34.64730290456431</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>65.21739130434783</v>
+        <v>65.35269709543569</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>34.78260869565217</v>
+        <v>34.64730290456431</v>
       </c>
     </row>
     <row r="5">
@@ -631,37 +631,37 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>2572</v>
+        <v>2569</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>1070</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>22.900466562986</v>
+        <v>22.88828337874659</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>41.60186625194402</v>
+        <v>41.65044764499805</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>35.49766718506999</v>
+        <v>35.46126897625535</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>64.50233281493001</v>
+        <v>64.53873102374465</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>35.49766718506999</v>
+        <v>35.46126897625535</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/status_by_number_tier.xlsx
+++ b/output/aggregate_tables/status_by_number_tier.xlsx
@@ -515,7 +515,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>388</v>
@@ -524,28 +524,28 @@
         <v>609</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>997</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>25.49277266754271</v>
+        <v>25.47603414313854</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>40.01314060446781</v>
+        <v>39.98686802363756</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>34.49408672798949</v>
+        <v>34.5370978332239</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>65.5059132720105</v>
+        <v>65.4629021667761</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>34.49408672798949</v>
+        <v>34.5370978332239</v>
       </c>
     </row>
     <row r="3">
@@ -553,37 +553,37 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>112</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>19.82300884955752</v>
+        <v>19.75308641975309</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>41.41592920353983</v>
+        <v>41.44620811287478</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>38.76106194690265</v>
+        <v>38.80070546737213</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>61.23893805309735</v>
+        <v>61.19929453262787</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>38.76106194690265</v>
+        <v>38.80070546737213</v>
       </c>
     </row>
     <row r="4">
@@ -631,37 +631,37 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>2569</v>
+        <v>2572</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>588</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>22.88828337874659</v>
+        <v>22.86158631415241</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>41.65044764499805</v>
+        <v>41.6407465007776</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>35.46126897625535</v>
+        <v>35.49766718506999</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>64.53873102374465</v>
+        <v>64.50233281493001</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>35.46126897625535</v>
+        <v>35.49766718506999</v>
       </c>
     </row>
   </sheetData>
